--- a/tests/test_data/test_fi.xlsx
+++ b/tests/test_data/test_fi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t xml:space="preserve">Rakennustunnus</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1977</t>
   </si>
   <si>
     <t xml:space="preserve">1978</t>
@@ -420,8 +417,8 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,32 +623,32 @@
       <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="1" t="n">
+        <v>9999</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>48</v>
@@ -660,10 +657,10 @@
         <v>48</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="AD3" s="1" t="n">
         <v>6671951</v>
@@ -674,13 +671,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
@@ -707,19 +704,19 @@
         <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>45</v>
@@ -728,22 +725,22 @@
         <v>45</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="AD4" s="1" t="n">
         <v>6671911</v>

--- a/tests/test_data/test_fi.xlsx
+++ b/tests/test_data/test_fi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t xml:space="preserve">Rakennustunnus</t>
   </si>
@@ -163,16 +163,16 @@
     <t xml:space="preserve">Vuonna 1988 rakennuksen kellariin suunniteltiin taloyhtiölle saunaosasto (Arkkitehti Hannu Lehto). Vuonna 1994 rakennuksen parvekkeet suunniteltiin varustettaviksi sivuun siirrettävillä lasiseinillä (arkkitehti Tapani Virkkala).</t>
   </si>
   <si>
-    <t xml:space="preserve">Rakennuksen arkkitehtuuri on harkittua ja viimeisteltyä. Rakennus on säilynyt hyvin alkuperäisessä asussaan tai tehdyt muutokset ovat onnistuneesti sopeutettu olemassaolevaan rakennukseen.</t>
+    <t xml:space="preserve">Reasoning 1 fi</t>
   </si>
   <si>
     <t xml:space="preserve">betoni</t>
   </si>
   <si>
-    <t xml:space="preserve">Viisikerroksinen rakennus, jossa on kaksi kellarikerrosta ja ullakko.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rakennus on katettu pellillä. Julkisivut ovat vaaleaksi maalattua roiskerappausta. Sokkelissa on terastirappaus. Parvekkeiden kaiteet ovat kapeasti uurrettua alumiinilevyä.</t>
+    <t xml:space="preserve">description fi 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facade fi 1</t>
   </si>
   <si>
     <t xml:space="preserve">09103100030009001</t>
@@ -211,10 +211,13 @@
     <t xml:space="preserve">kerrostalot, päiväkodit</t>
   </si>
   <si>
-    <t xml:space="preserve">Viisikerroksinen rakennus, jossa on yksi kellarikerros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rakennus on katettu pellillä. Julkisivut ovat vaaleaa harjattua betonia.</t>
+    <t xml:space="preserve">päiväkodit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description fi 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facade fi 2</t>
   </si>
   <si>
     <t xml:space="preserve">09103100030001001</t>
@@ -238,16 +241,16 @@
     <t xml:space="preserve">Vuonna 1996 rakennuksen ikkunat ja parvekeovet uusittiin puu-alumiinirakenteisiksi (Fenestra Oy).</t>
   </si>
   <si>
-    <t xml:space="preserve">Rakennuksen arkkitehtuuri on harkittua ja viimeisteltyä. Rakennus on säilynyt osin alkuperäisessä asussaan.</t>
+    <t xml:space="preserve">Reasoning 3 fi</t>
   </si>
   <si>
     <t xml:space="preserve">tiili</t>
   </si>
   <si>
-    <t xml:space="preserve">Viisikerroksinen rakennus, jossa on yksi kellarikerros ja ullakko.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julkisivut ovat vaaleanruskeaa roiskerappausta. Betonisokkeli on maalattu ruskeaksi. Ulko-ovet on kehystetty klinkkerillä.</t>
+    <t xml:space="preserve">description fi 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facade fi 3</t>
   </si>
 </sst>
 </file>
@@ -417,8 +420,8 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -595,7 +598,7 @@
         <v>25493834</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -647,8 +650,8 @@
       <c r="R3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>62</v>
+      <c r="S3" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>48</v>
@@ -657,10 +660,10 @@
         <v>48</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD3" s="1" t="n">
         <v>6671951</v>
@@ -671,13 +674,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
@@ -697,26 +700,26 @@
       <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>40</v>
+      <c r="J4" s="1" t="n">
+        <v>1952</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>45</v>
@@ -725,22 +728,22 @@
         <v>45</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" s="1" t="n">
         <v>6671911</v>
